--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,6 +543,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +587,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,6 +631,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -663,6 +673,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,6 +715,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -745,6 +757,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,6 +799,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -827,6 +841,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,6 +883,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -909,6 +925,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,6 +969,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -995,6 +1013,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1036,6 +1055,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1079,6 +1099,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,6 +1141,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1161,6 +1183,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1202,6 +1225,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1243,6 +1267,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,6 +1311,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1329,6 +1355,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,6 +1397,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1411,6 +1439,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1452,6 +1481,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1493,6 +1523,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1534,6 +1565,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1575,6 +1607,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1616,6 +1649,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1657,6 +1691,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1698,6 +1733,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1741,6 +1777,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1782,6 +1819,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1825,6 +1863,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1866,6 +1905,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1907,6 +1947,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1948,6 +1989,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1989,6 +2031,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2030,6 +2073,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2071,6 +2115,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2112,6 +2157,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2153,6 +2199,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2194,6 +2241,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2235,6 +2283,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2276,6 +2325,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2317,6 +2367,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2358,6 +2409,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2385,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2393,11 +2445,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>1.008220338983051</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.004408772326475</v>
       </c>
     </row>
     <row r="50">
@@ -2426,20 +2481,15 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2470,17 +2520,12 @@
         <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1.008446327683616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2508,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2516,6 +2561,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2543,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2551,6 +2597,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2578,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2586,6 +2633,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2613,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2621,6 +2669,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2656,6 +2705,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2691,6 +2741,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2718,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2726,6 +2777,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2753,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2761,6 +2813,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2796,6 +2849,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2831,6 +2885,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2866,6 +2921,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2901,6 +2957,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2936,6 +2993,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2971,6 +3029,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3006,6 +3065,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3041,6 +3101,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3076,6 +3137,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3111,6 +3173,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3146,6 +3209,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3181,6 +3245,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,6 +3281,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3251,6 +3317,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,6 +3353,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3321,6 +3389,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3356,6 +3425,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3391,6 +3461,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3426,6 +3497,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3461,6 +3533,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3496,6 +3569,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3531,6 +3605,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3566,6 +3641,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3601,6 +3677,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3636,6 +3713,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3671,6 +3749,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3706,6 +3785,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3741,6 +3821,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3776,6 +3857,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3811,6 +3893,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3846,6 +3929,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3881,6 +3965,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3916,6 +4001,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3951,6 +4037,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3986,6 +4073,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4021,6 +4109,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4056,6 +4145,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4091,6 +4181,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4126,6 +4217,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4161,6 +4253,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,6 +4289,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4231,6 +4325,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4266,6 +4361,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4301,6 +4397,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4336,6 +4433,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4371,6 +4469,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4406,6 +4505,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4441,6 +4541,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4476,6 +4577,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4511,6 +4613,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4546,6 +4649,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4581,6 +4685,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4616,6 +4721,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4651,6 +4757,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4686,6 +4793,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4721,6 +4829,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88.59</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>88.84999999999999</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>88.84999999999999</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>31468.5733</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="n">
-        <v>221628.1758</v>
+        <v>161386.4004</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="D3" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="E3" t="n">
-        <v>88.5</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>178.9772</v>
+        <v>3092.9229</v>
       </c>
       <c r="G3" t="n">
-        <v>221449.1986</v>
+        <v>164479.3233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88.45999999999999</v>
+        <v>88.17</v>
       </c>
       <c r="C4" t="n">
-        <v>88.45999999999999</v>
+        <v>88.17</v>
       </c>
       <c r="D4" t="n">
-        <v>88.45999999999999</v>
+        <v>88.17</v>
       </c>
       <c r="E4" t="n">
-        <v>88.45999999999999</v>
+        <v>88.17</v>
       </c>
       <c r="F4" t="n">
-        <v>1080</v>
+        <v>6391.1977</v>
       </c>
       <c r="G4" t="n">
-        <v>220369.1986</v>
+        <v>170870.521</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="K4" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -550,34 +550,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>88.34999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>88.79000000000001</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>88.79000000000001</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>88.34999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="F5" t="n">
-        <v>614.0548</v>
+        <v>2767.4499</v>
       </c>
       <c r="G5" t="n">
-        <v>220983.2534</v>
+        <v>168103.0711</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>88.45999999999999</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -594,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88.8</v>
+        <v>87.8</v>
       </c>
       <c r="C6" t="n">
-        <v>88.8</v>
+        <v>87.8</v>
       </c>
       <c r="D6" t="n">
-        <v>88.8</v>
+        <v>87.8</v>
       </c>
       <c r="E6" t="n">
-        <v>88.8</v>
+        <v>87.8</v>
       </c>
       <c r="F6" t="n">
-        <v>221.3864</v>
+        <v>2083.9999</v>
       </c>
       <c r="G6" t="n">
-        <v>221204.6398</v>
+        <v>166019.0712</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -618,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.79000000000001</v>
+        <v>88</v>
       </c>
       <c r="K6" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -638,32 +636,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88.87</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>88.87</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>88.87</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>88.87</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>598.7993</v>
+        <v>640</v>
       </c>
       <c r="G7" t="n">
-        <v>221803.4391</v>
+        <v>166659.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>87.8</v>
+      </c>
       <c r="K7" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -680,32 +680,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88.88</v>
+        <v>87.8</v>
       </c>
       <c r="C8" t="n">
-        <v>88.87</v>
+        <v>87.8</v>
       </c>
       <c r="D8" t="n">
-        <v>88.89</v>
+        <v>87.8</v>
       </c>
       <c r="E8" t="n">
-        <v>88.87</v>
+        <v>87.8</v>
       </c>
       <c r="F8" t="n">
-        <v>8444.860199999999</v>
+        <v>2486.3015</v>
       </c>
       <c r="G8" t="n">
-        <v>221803.4391</v>
+        <v>164172.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>87.98999999999999</v>
+      </c>
       <c r="K8" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -722,22 +724,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88.88</v>
+        <v>87.8</v>
       </c>
       <c r="C9" t="n">
-        <v>88.88</v>
+        <v>87.8</v>
       </c>
       <c r="D9" t="n">
-        <v>88.88</v>
+        <v>87.8</v>
       </c>
       <c r="E9" t="n">
-        <v>88.88</v>
+        <v>87.8</v>
       </c>
       <c r="F9" t="n">
-        <v>300.0042</v>
+        <v>1500</v>
       </c>
       <c r="G9" t="n">
-        <v>222103.4433</v>
+        <v>164172.7697</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -764,32 +766,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88.87</v>
+        <v>87.8</v>
       </c>
       <c r="C10" t="n">
-        <v>88.89</v>
+        <v>87.8</v>
       </c>
       <c r="D10" t="n">
-        <v>88.89</v>
+        <v>87.8</v>
       </c>
       <c r="E10" t="n">
-        <v>88.87</v>
+        <v>87.8</v>
       </c>
       <c r="F10" t="n">
-        <v>14304.0482</v>
+        <v>19000</v>
       </c>
       <c r="G10" t="n">
-        <v>236407.4915</v>
+        <v>164172.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>87.8</v>
+      </c>
       <c r="K10" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -806,32 +810,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88.89</v>
+        <v>87.8</v>
       </c>
       <c r="C11" t="n">
-        <v>88.94</v>
+        <v>88.05</v>
       </c>
       <c r="D11" t="n">
-        <v>88.94</v>
+        <v>88.05</v>
       </c>
       <c r="E11" t="n">
-        <v>88.89</v>
+        <v>87.8</v>
       </c>
       <c r="F11" t="n">
-        <v>4179.5516</v>
+        <v>6930.8234</v>
       </c>
       <c r="G11" t="n">
-        <v>240587.0431</v>
+        <v>171103.5931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>87.8</v>
+      </c>
       <c r="K11" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -848,32 +854,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C12" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D12" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E12" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="F12" t="n">
-        <v>308.0869</v>
+        <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>240278.9562</v>
+        <v>170603.5931</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>88.05</v>
+      </c>
       <c r="K12" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -890,32 +898,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C13" t="n">
-        <v>88.94</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>88.94</v>
+        <v>87.8</v>
       </c>
       <c r="E13" t="n">
-        <v>88.93000000000001</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>22378.2987</v>
+        <v>3914.799</v>
       </c>
       <c r="G13" t="n">
-        <v>262657.2549</v>
+        <v>166688.7941</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>87.8</v>
+      </c>
       <c r="K13" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -932,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>88.94</v>
+        <v>88.05</v>
       </c>
       <c r="C14" t="n">
-        <v>89.17</v>
+        <v>88.05</v>
       </c>
       <c r="D14" t="n">
-        <v>89.19</v>
+        <v>88.05</v>
       </c>
       <c r="E14" t="n">
-        <v>88.94</v>
+        <v>88.05</v>
       </c>
       <c r="F14" t="n">
-        <v>29284.2777</v>
+        <v>1115.208</v>
       </c>
       <c r="G14" t="n">
-        <v>291941.5326</v>
+        <v>167804.0021</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -956,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.94</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -976,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.04000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="C15" t="n">
-        <v>89.03</v>
+        <v>87.7</v>
       </c>
       <c r="D15" t="n">
-        <v>89.04000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="E15" t="n">
-        <v>89.03</v>
+        <v>87.7</v>
       </c>
       <c r="F15" t="n">
-        <v>15511.8076</v>
+        <v>15.9808</v>
       </c>
       <c r="G15" t="n">
-        <v>276429.725</v>
+        <v>167788.0213</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1000,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.17</v>
+        <v>88.05</v>
       </c>
       <c r="K15" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1020,32 +1030,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C16" t="n">
-        <v>88.92</v>
+        <v>87.8</v>
       </c>
       <c r="D16" t="n">
-        <v>88.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E16" t="n">
-        <v>88.92</v>
+        <v>87.8</v>
       </c>
       <c r="F16" t="n">
-        <v>6241.0228</v>
+        <v>681.8546</v>
       </c>
       <c r="G16" t="n">
-        <v>270188.7022</v>
+        <v>168469.8759</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>87.7</v>
+      </c>
       <c r="K16" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1062,34 +1074,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>89.04000000000001</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>88.98999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>89.04000000000001</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>88.98999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>1414.5697</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>271603.2719</v>
+        <v>168449.8759</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>88.92</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1106,22 +1116,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>88.98999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>89.19</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>89.19</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
-        <v>88.98999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>4155.0403</v>
+        <v>16911.9343</v>
       </c>
       <c r="G18" t="n">
-        <v>275758.3122</v>
+        <v>185361.8102</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1131,7 +1141,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1148,22 +1158,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>89.17</v>
+        <v>87.88</v>
       </c>
       <c r="C19" t="n">
-        <v>89.7</v>
+        <v>87.89</v>
       </c>
       <c r="D19" t="n">
-        <v>89.7</v>
+        <v>87.89</v>
       </c>
       <c r="E19" t="n">
-        <v>88.11</v>
+        <v>87.88</v>
       </c>
       <c r="F19" t="n">
-        <v>7333.7872</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="n">
-        <v>283092.0994</v>
+        <v>183361.8102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1173,7 +1183,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1190,22 +1200,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>89.17</v>
+        <v>87.89</v>
       </c>
       <c r="C20" t="n">
-        <v>88.31</v>
+        <v>87.89</v>
       </c>
       <c r="D20" t="n">
-        <v>89.26000000000001</v>
+        <v>87.89</v>
       </c>
       <c r="E20" t="n">
-        <v>88.20999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="F20" t="n">
-        <v>17615.5506</v>
+        <v>7373</v>
       </c>
       <c r="G20" t="n">
-        <v>265476.5488</v>
+        <v>183361.8102</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1215,7 +1225,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1232,22 +1242,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>89.38</v>
+        <v>87.89</v>
       </c>
       <c r="C21" t="n">
-        <v>88.22</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>89.38</v>
+        <v>87.89</v>
       </c>
       <c r="E21" t="n">
-        <v>88.22</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>2330</v>
+        <v>7263.3552</v>
       </c>
       <c r="G21" t="n">
-        <v>263146.5488</v>
+        <v>176098.455</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1257,7 +1267,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1274,34 +1284,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>89.23999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="C22" t="n">
-        <v>89.23999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="D22" t="n">
-        <v>89.23999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="E22" t="n">
-        <v>89.23999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="F22" t="n">
-        <v>7130.7282</v>
+        <v>3843.2742</v>
       </c>
       <c r="G22" t="n">
-        <v>270277.277</v>
+        <v>179941.7292</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>88.22</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1318,34 +1326,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>89.53</v>
+        <v>87.89</v>
       </c>
       <c r="C23" t="n">
-        <v>88.20999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="D23" t="n">
-        <v>89.59999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="E23" t="n">
-        <v>88.20999999999999</v>
+        <v>87.89</v>
       </c>
       <c r="F23" t="n">
-        <v>32671.5275</v>
+        <v>190.6402</v>
       </c>
       <c r="G23" t="n">
-        <v>237605.7495</v>
+        <v>179941.7292</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>89.23999999999999</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1362,22 +1368,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>89.34999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>89.44</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>89.45</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>89.34999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>3019.8534</v>
+        <v>6900.1354</v>
       </c>
       <c r="G24" t="n">
-        <v>240625.6029</v>
+        <v>173041.5938</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1387,7 +1393,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1404,22 +1410,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>89.28</v>
+        <v>88</v>
       </c>
       <c r="C25" t="n">
-        <v>89.28</v>
+        <v>88</v>
       </c>
       <c r="D25" t="n">
-        <v>89.28</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
-        <v>89.28</v>
+        <v>88</v>
       </c>
       <c r="F25" t="n">
-        <v>3198.9574</v>
+        <v>4098.6996</v>
       </c>
       <c r="G25" t="n">
-        <v>237426.6455</v>
+        <v>177140.2934</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1446,22 +1452,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>89.28</v>
+        <v>88.08</v>
       </c>
       <c r="C26" t="n">
-        <v>89.28</v>
+        <v>88.08</v>
       </c>
       <c r="D26" t="n">
-        <v>89.28</v>
+        <v>88.08</v>
       </c>
       <c r="E26" t="n">
-        <v>89.28</v>
+        <v>88.08</v>
       </c>
       <c r="F26" t="n">
-        <v>217.9396</v>
+        <v>98.7218</v>
       </c>
       <c r="G26" t="n">
-        <v>237426.6455</v>
+        <v>177239.0152</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1471,7 +1477,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1488,22 +1494,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>89.29000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>89.19</v>
+        <v>88.08</v>
       </c>
       <c r="D27" t="n">
-        <v>89.29000000000001</v>
+        <v>88.08</v>
       </c>
       <c r="E27" t="n">
-        <v>88.22</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>32100.1161</v>
+        <v>1824.7138</v>
       </c>
       <c r="G27" t="n">
-        <v>205326.5294</v>
+        <v>177239.0152</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1513,7 +1519,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1530,22 +1536,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>88.8</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>88.42</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>88.8</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>88.42</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>3606.1776</v>
+        <v>12914.5873</v>
       </c>
       <c r="G28" t="n">
-        <v>201720.3518</v>
+        <v>190153.6025</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1555,7 +1561,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,22 +1578,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.15000000000001</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>89.09999999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>89.15000000000001</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>88.22</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>6762.4784</v>
+        <v>1892.7576</v>
       </c>
       <c r="G29" t="n">
-        <v>208482.8302</v>
+        <v>190153.6025</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1614,22 +1620,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>88.59</v>
       </c>
       <c r="C30" t="n">
-        <v>89.13</v>
+        <v>88.59</v>
       </c>
       <c r="D30" t="n">
-        <v>89.13</v>
+        <v>88.59</v>
       </c>
       <c r="E30" t="n">
-        <v>89</v>
+        <v>88.59</v>
       </c>
       <c r="F30" t="n">
-        <v>9448.0123</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>217930.8425</v>
+        <v>190159.6025</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1639,7 +1645,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1656,22 +1662,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.48999999999999</v>
+        <v>88.59</v>
       </c>
       <c r="C31" t="n">
-        <v>89</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>89.48999999999999</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>88.11</v>
+        <v>88.59</v>
       </c>
       <c r="F31" t="n">
-        <v>34265.7016</v>
+        <v>31468.5733</v>
       </c>
       <c r="G31" t="n">
-        <v>183665.1409</v>
+        <v>221628.1758</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1698,22 +1704,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.09</v>
+        <v>88.5</v>
       </c>
       <c r="C32" t="n">
-        <v>89.3</v>
+        <v>88.5</v>
       </c>
       <c r="D32" t="n">
-        <v>89.3</v>
+        <v>88.5</v>
       </c>
       <c r="E32" t="n">
-        <v>88.97</v>
+        <v>88.5</v>
       </c>
       <c r="F32" t="n">
-        <v>35986.196</v>
+        <v>178.9772</v>
       </c>
       <c r="G32" t="n">
-        <v>219651.3369</v>
+        <v>221449.1986</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1723,7 +1729,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1740,34 +1746,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.3</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>88.42</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>89.3</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>88.42</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>545</v>
+        <v>1080</v>
       </c>
       <c r="G33" t="n">
-        <v>219106.3369</v>
+        <v>220369.1986</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>89.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1784,22 +1788,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>89.17</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>89.17</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>89.17</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>89.17</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>450</v>
+        <v>614.0548</v>
       </c>
       <c r="G34" t="n">
-        <v>219556.3369</v>
+        <v>220983.2534</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1809,7 +1813,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1826,34 +1830,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>89.38</v>
+        <v>88.8</v>
       </c>
       <c r="C35" t="n">
-        <v>89.38</v>
+        <v>88.8</v>
       </c>
       <c r="D35" t="n">
-        <v>89.38</v>
+        <v>88.8</v>
       </c>
       <c r="E35" t="n">
-        <v>89.38</v>
+        <v>88.8</v>
       </c>
       <c r="F35" t="n">
-        <v>375.6329</v>
+        <v>221.3864</v>
       </c>
       <c r="G35" t="n">
-        <v>219931.9698</v>
+        <v>221204.6398</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>89.17</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1870,22 +1872,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>89.33</v>
+        <v>88.87</v>
       </c>
       <c r="C36" t="n">
-        <v>89.33</v>
+        <v>88.87</v>
       </c>
       <c r="D36" t="n">
-        <v>89.33</v>
+        <v>88.87</v>
       </c>
       <c r="E36" t="n">
-        <v>89.33</v>
+        <v>88.87</v>
       </c>
       <c r="F36" t="n">
-        <v>439.1459</v>
+        <v>598.7993</v>
       </c>
       <c r="G36" t="n">
-        <v>219492.8239</v>
+        <v>221803.4391</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1912,22 +1914,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>89.33</v>
+        <v>88.88</v>
       </c>
       <c r="C37" t="n">
-        <v>89.09</v>
+        <v>88.87</v>
       </c>
       <c r="D37" t="n">
-        <v>89.33</v>
+        <v>88.89</v>
       </c>
       <c r="E37" t="n">
-        <v>88.22</v>
+        <v>88.87</v>
       </c>
       <c r="F37" t="n">
-        <v>11623.0635</v>
+        <v>8444.860199999999</v>
       </c>
       <c r="G37" t="n">
-        <v>207869.7604</v>
+        <v>221803.4391</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1937,7 +1939,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1954,22 +1956,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>89.09999999999999</v>
+        <v>88.88</v>
       </c>
       <c r="C38" t="n">
-        <v>89.19</v>
+        <v>88.88</v>
       </c>
       <c r="D38" t="n">
-        <v>89.19</v>
+        <v>88.88</v>
       </c>
       <c r="E38" t="n">
-        <v>89.09999999999999</v>
+        <v>88.88</v>
       </c>
       <c r="F38" t="n">
-        <v>12099.5614</v>
+        <v>300.0042</v>
       </c>
       <c r="G38" t="n">
-        <v>219969.3218</v>
+        <v>222103.4433</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1979,7 +1981,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1996,22 +1998,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>89.2</v>
+        <v>88.87</v>
       </c>
       <c r="C39" t="n">
-        <v>89.2</v>
+        <v>88.89</v>
       </c>
       <c r="D39" t="n">
-        <v>89.2</v>
+        <v>88.89</v>
       </c>
       <c r="E39" t="n">
-        <v>89.2</v>
+        <v>88.87</v>
       </c>
       <c r="F39" t="n">
-        <v>12000</v>
+        <v>14304.0482</v>
       </c>
       <c r="G39" t="n">
-        <v>231969.3218</v>
+        <v>236407.4915</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2021,7 +2023,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2038,22 +2040,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.23999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="C40" t="n">
-        <v>89.23999999999999</v>
+        <v>88.94</v>
       </c>
       <c r="D40" t="n">
-        <v>89.23999999999999</v>
+        <v>88.94</v>
       </c>
       <c r="E40" t="n">
-        <v>89.23999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>4179.5516</v>
       </c>
       <c r="G40" t="n">
-        <v>235969.3218</v>
+        <v>240587.0431</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2063,7 +2065,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2080,22 +2082,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.28</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>89.28</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>89.28</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>89.28</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>3874.6397</v>
+        <v>308.0869</v>
       </c>
       <c r="G41" t="n">
-        <v>239843.9615</v>
+        <v>240278.9562</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2105,7 +2107,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2122,22 +2124,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89.43000000000001</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>89.43000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="D42" t="n">
-        <v>89.43000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="E42" t="n">
-        <v>89.43000000000001</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>3007.8626</v>
+        <v>22378.2987</v>
       </c>
       <c r="G42" t="n">
-        <v>242851.8241</v>
+        <v>262657.2549</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2164,22 +2166,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.40000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="C43" t="n">
-        <v>89.40000000000001</v>
+        <v>89.17</v>
       </c>
       <c r="D43" t="n">
-        <v>89.40000000000001</v>
+        <v>89.19</v>
       </c>
       <c r="E43" t="n">
-        <v>89.40000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="F43" t="n">
-        <v>1178.7821</v>
+        <v>29284.2777</v>
       </c>
       <c r="G43" t="n">
-        <v>241673.042</v>
+        <v>291941.5326</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2189,7 +2191,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2206,40 +2208,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.33</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>89.2</v>
+        <v>89.03</v>
       </c>
       <c r="D44" t="n">
-        <v>89.33</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>88.52</v>
+        <v>89.03</v>
       </c>
       <c r="F44" t="n">
-        <v>20571.0047</v>
+        <v>15511.8076</v>
       </c>
       <c r="G44" t="n">
-        <v>221102.0373</v>
+        <v>276429.725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>88.5</v>
+        <v>88.16</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>1.004868421052632</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2248,38 +2250,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.34999999999999</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>89.38</v>
+        <v>88.92</v>
       </c>
       <c r="D45" t="n">
-        <v>89.38</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>89.34999999999999</v>
+        <v>88.92</v>
       </c>
       <c r="F45" t="n">
-        <v>31973.2014</v>
+        <v>6241.0228</v>
       </c>
       <c r="G45" t="n">
-        <v>253075.2387</v>
+        <v>270188.7022</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2290,38 +2286,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.38</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>89.28</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>89.48999999999999</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>88.27</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>12434.3654</v>
+        <v>1414.5697</v>
       </c>
       <c r="G46" t="n">
-        <v>240640.8733</v>
+        <v>271603.2719</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2332,38 +2322,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>89.28</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>89.68000000000001</v>
+        <v>89.19</v>
       </c>
       <c r="D47" t="n">
-        <v>89.69</v>
+        <v>89.19</v>
       </c>
       <c r="E47" t="n">
-        <v>89.19</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>8517.1659</v>
+        <v>4155.0403</v>
       </c>
       <c r="G47" t="n">
-        <v>249158.0392</v>
+        <v>275758.3122</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2374,38 +2358,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>89.68000000000001</v>
+        <v>89.17</v>
       </c>
       <c r="C48" t="n">
-        <v>89.68000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D48" t="n">
-        <v>89.68000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E48" t="n">
-        <v>89.68000000000001</v>
+        <v>88.11</v>
       </c>
       <c r="F48" t="n">
-        <v>9262.6131</v>
+        <v>7333.7872</v>
       </c>
       <c r="G48" t="n">
-        <v>249158.0392</v>
+        <v>283092.0994</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2394,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>89.68000000000001</v>
+        <v>89.17</v>
       </c>
       <c r="C49" t="n">
-        <v>89.67</v>
+        <v>88.31</v>
       </c>
       <c r="D49" t="n">
-        <v>89.68000000000001</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>89.66</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>22733.194</v>
+        <v>17615.5506</v>
       </c>
       <c r="G49" t="n">
-        <v>226424.8452</v>
+        <v>265476.5488</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2440,48 +2418,40 @@
         <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>1.008220338983051</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.004408772326475</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>89.67</v>
+        <v>89.38</v>
       </c>
       <c r="C50" t="n">
-        <v>89.69</v>
+        <v>88.22</v>
       </c>
       <c r="D50" t="n">
-        <v>89.69</v>
+        <v>89.38</v>
       </c>
       <c r="E50" t="n">
-        <v>89.01000000000001</v>
+        <v>88.22</v>
       </c>
       <c r="F50" t="n">
-        <v>77332.0622</v>
+        <v>2330</v>
       </c>
       <c r="G50" t="n">
-        <v>303756.9074</v>
+        <v>263146.5488</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2496,28 +2466,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>89.69</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>89.69</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>89.69</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>89.69</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>7391.299</v>
+        <v>7130.7282</v>
       </c>
       <c r="G51" t="n">
-        <v>303756.9074</v>
+        <v>270277.277</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2532,22 +2502,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>89.04000000000001</v>
+        <v>89.53</v>
       </c>
       <c r="C52" t="n">
-        <v>88.90000000000001</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>89.04000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>88.90000000000001</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>4579.7017</v>
+        <v>32671.5275</v>
       </c>
       <c r="G52" t="n">
-        <v>299177.2057</v>
+        <v>237605.7495</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2568,22 +2538,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>89.06</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>89.06</v>
+        <v>89.44</v>
       </c>
       <c r="D53" t="n">
-        <v>89.06</v>
+        <v>89.45</v>
       </c>
       <c r="E53" t="n">
-        <v>89.06</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>177.7986</v>
+        <v>3019.8534</v>
       </c>
       <c r="G53" t="n">
-        <v>299355.0043</v>
+        <v>240625.6029</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2604,22 +2574,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>89.08</v>
+        <v>89.28</v>
       </c>
       <c r="C54" t="n">
-        <v>89.90000000000001</v>
+        <v>89.28</v>
       </c>
       <c r="D54" t="n">
-        <v>89.90000000000001</v>
+        <v>89.28</v>
       </c>
       <c r="E54" t="n">
-        <v>89.08</v>
+        <v>89.28</v>
       </c>
       <c r="F54" t="n">
-        <v>5189.8208</v>
+        <v>3198.9574</v>
       </c>
       <c r="G54" t="n">
-        <v>304544.8251</v>
+        <v>237426.6455</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2640,22 +2610,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>88.90000000000001</v>
+        <v>89.28</v>
       </c>
       <c r="C55" t="n">
-        <v>89.68000000000001</v>
+        <v>89.28</v>
       </c>
       <c r="D55" t="n">
-        <v>89.69</v>
+        <v>89.28</v>
       </c>
       <c r="E55" t="n">
-        <v>88.90000000000001</v>
+        <v>89.28</v>
       </c>
       <c r="F55" t="n">
-        <v>1413.3456</v>
+        <v>217.9396</v>
       </c>
       <c r="G55" t="n">
-        <v>303131.4795</v>
+        <v>237426.6455</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2676,22 +2646,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>89.78</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>89.78</v>
+        <v>89.19</v>
       </c>
       <c r="D56" t="n">
-        <v>89.78</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>89.78</v>
+        <v>88.22</v>
       </c>
       <c r="F56" t="n">
-        <v>1702</v>
+        <v>32100.1161</v>
       </c>
       <c r="G56" t="n">
-        <v>304833.4795</v>
+        <v>205326.5294</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2712,22 +2682,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C57" t="n">
-        <v>88.81999999999999</v>
+        <v>88.42</v>
       </c>
       <c r="D57" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="E57" t="n">
-        <v>88.81999999999999</v>
+        <v>88.42</v>
       </c>
       <c r="F57" t="n">
-        <v>2120</v>
+        <v>3606.1776</v>
       </c>
       <c r="G57" t="n">
-        <v>302713.4795</v>
+        <v>201720.3518</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2748,28 +2718,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88.8</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>88.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>88.8</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>88.59999999999999</v>
+        <v>88.22</v>
       </c>
       <c r="F58" t="n">
-        <v>230</v>
+        <v>6762.4784</v>
       </c>
       <c r="G58" t="n">
-        <v>302483.4795</v>
+        <v>208482.8302</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2784,22 +2754,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>88.55</v>
+        <v>89</v>
       </c>
       <c r="C59" t="n">
-        <v>88.52</v>
+        <v>89.13</v>
       </c>
       <c r="D59" t="n">
-        <v>88.55</v>
+        <v>89.13</v>
       </c>
       <c r="E59" t="n">
-        <v>88.52</v>
+        <v>89</v>
       </c>
       <c r="F59" t="n">
-        <v>13025.8838</v>
+        <v>9448.0123</v>
       </c>
       <c r="G59" t="n">
-        <v>289457.5956999999</v>
+        <v>217930.8425</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2820,28 +2790,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>88.8</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>88.8</v>
+        <v>89</v>
       </c>
       <c r="D60" t="n">
-        <v>88.8</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>88.8</v>
+        <v>88.11</v>
       </c>
       <c r="F60" t="n">
-        <v>150</v>
+        <v>34265.7016</v>
       </c>
       <c r="G60" t="n">
-        <v>289607.5956999999</v>
+        <v>183665.1409</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2856,28 +2826,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>89.08</v>
+        <v>89.09</v>
       </c>
       <c r="C61" t="n">
-        <v>89.09</v>
+        <v>89.3</v>
       </c>
       <c r="D61" t="n">
-        <v>89.09</v>
+        <v>89.3</v>
       </c>
       <c r="E61" t="n">
-        <v>89.08</v>
+        <v>88.97</v>
       </c>
       <c r="F61" t="n">
-        <v>6422.7514</v>
+        <v>35986.196</v>
       </c>
       <c r="G61" t="n">
-        <v>296030.3471</v>
+        <v>219651.3369</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2892,28 +2862,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>88.5</v>
+        <v>89.3</v>
       </c>
       <c r="C62" t="n">
-        <v>88.26000000000001</v>
+        <v>88.42</v>
       </c>
       <c r="D62" t="n">
-        <v>88.5</v>
+        <v>89.3</v>
       </c>
       <c r="E62" t="n">
-        <v>88.26000000000001</v>
+        <v>88.42</v>
       </c>
       <c r="F62" t="n">
-        <v>370.353</v>
+        <v>545</v>
       </c>
       <c r="G62" t="n">
-        <v>295659.9941</v>
+        <v>219106.3369</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2928,28 +2898,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>88.3</v>
+        <v>89.17</v>
       </c>
       <c r="C63" t="n">
-        <v>88.3</v>
+        <v>89.17</v>
       </c>
       <c r="D63" t="n">
-        <v>88.3</v>
+        <v>89.17</v>
       </c>
       <c r="E63" t="n">
-        <v>88.3</v>
+        <v>89.17</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="G63" t="n">
-        <v>295665.9941</v>
+        <v>219556.3369</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2964,28 +2934,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>88.5</v>
+        <v>89.38</v>
       </c>
       <c r="C64" t="n">
-        <v>89</v>
+        <v>89.38</v>
       </c>
       <c r="D64" t="n">
-        <v>89</v>
+        <v>89.38</v>
       </c>
       <c r="E64" t="n">
-        <v>88.5</v>
+        <v>89.38</v>
       </c>
       <c r="F64" t="n">
-        <v>3559.3042</v>
+        <v>375.6329</v>
       </c>
       <c r="G64" t="n">
-        <v>299225.2983</v>
+        <v>219931.9698</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -3000,28 +2970,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>88.41</v>
+        <v>89.33</v>
       </c>
       <c r="C65" t="n">
-        <v>88.25</v>
+        <v>89.33</v>
       </c>
       <c r="D65" t="n">
-        <v>88.41</v>
+        <v>89.33</v>
       </c>
       <c r="E65" t="n">
-        <v>88.25</v>
+        <v>89.33</v>
       </c>
       <c r="F65" t="n">
-        <v>9186.729499999999</v>
+        <v>439.1459</v>
       </c>
       <c r="G65" t="n">
-        <v>290038.5687999999</v>
+        <v>219492.8239</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3036,28 +3006,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>88.90000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="C66" t="n">
-        <v>88.98999999999999</v>
+        <v>89.09</v>
       </c>
       <c r="D66" t="n">
-        <v>88.98999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="E66" t="n">
-        <v>88.90000000000001</v>
+        <v>88.22</v>
       </c>
       <c r="F66" t="n">
-        <v>2248.090796718732</v>
+        <v>11623.0635</v>
       </c>
       <c r="G66" t="n">
-        <v>292286.6595967187</v>
+        <v>207869.7604</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3072,28 +3042,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>88.79000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>88.79000000000001</v>
+        <v>89.19</v>
       </c>
       <c r="D67" t="n">
-        <v>88.79000000000001</v>
+        <v>89.19</v>
       </c>
       <c r="E67" t="n">
-        <v>88.79000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>11524.3875</v>
+        <v>12099.5614</v>
       </c>
       <c r="G67" t="n">
-        <v>280762.2720967187</v>
+        <v>219969.3218</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3108,28 +3078,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>88.16</v>
+        <v>89.2</v>
       </c>
       <c r="C68" t="n">
-        <v>87.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D68" t="n">
-        <v>88.16</v>
+        <v>89.2</v>
       </c>
       <c r="E68" t="n">
-        <v>87.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1198.8554</v>
+        <v>12000</v>
       </c>
       <c r="G68" t="n">
-        <v>279563.4166967187</v>
+        <v>231969.3218</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3144,28 +3114,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>88</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>88</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>88</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>88</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>10.2273</v>
+        <v>4000</v>
       </c>
       <c r="G69" t="n">
-        <v>279573.6439967187</v>
+        <v>235969.3218</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3180,28 +3150,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>88</v>
+        <v>89.28</v>
       </c>
       <c r="C70" t="n">
-        <v>88</v>
+        <v>89.28</v>
       </c>
       <c r="D70" t="n">
-        <v>88</v>
+        <v>89.28</v>
       </c>
       <c r="E70" t="n">
-        <v>88</v>
+        <v>89.28</v>
       </c>
       <c r="F70" t="n">
-        <v>2055</v>
+        <v>3874.6397</v>
       </c>
       <c r="G70" t="n">
-        <v>279573.6439967187</v>
+        <v>239843.9615</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3216,28 +3186,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>88</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>88.29000000000001</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>88.29000000000001</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>88</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>945</v>
+        <v>3007.8626</v>
       </c>
       <c r="G71" t="n">
-        <v>280518.6439967187</v>
+        <v>242851.8241</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3252,28 +3222,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>87.45</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>87.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>87.45</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>20569.4196</v>
+        <v>1178.7821</v>
       </c>
       <c r="G72" t="n">
-        <v>259949.2243967187</v>
+        <v>241673.042</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3288,28 +3258,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87.5</v>
+        <v>89.33</v>
       </c>
       <c r="C73" t="n">
-        <v>87.48999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="D73" t="n">
-        <v>87.5</v>
+        <v>89.33</v>
       </c>
       <c r="E73" t="n">
-        <v>87.48999999999999</v>
+        <v>88.52</v>
       </c>
       <c r="F73" t="n">
-        <v>33979.0478</v>
+        <v>20571.0047</v>
       </c>
       <c r="G73" t="n">
-        <v>293928.2721967187</v>
+        <v>221102.0373</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3324,28 +3294,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87.48999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>87.48999999999999</v>
+        <v>89.38</v>
       </c>
       <c r="D74" t="n">
-        <v>87.48999999999999</v>
+        <v>89.38</v>
       </c>
       <c r="E74" t="n">
-        <v>87.48999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>31973.2014</v>
       </c>
       <c r="G74" t="n">
-        <v>293928.2721967187</v>
+        <v>253075.2387</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3360,28 +3330,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87.5</v>
+        <v>89.38</v>
       </c>
       <c r="C75" t="n">
-        <v>87.48999999999999</v>
+        <v>89.28</v>
       </c>
       <c r="D75" t="n">
-        <v>87.5</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>87.48999999999999</v>
+        <v>88.27</v>
       </c>
       <c r="F75" t="n">
-        <v>11089</v>
+        <v>12434.3654</v>
       </c>
       <c r="G75" t="n">
-        <v>293928.2721967187</v>
+        <v>240640.8733</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3396,28 +3366,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87.5</v>
+        <v>89.28</v>
       </c>
       <c r="C76" t="n">
-        <v>87.5</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>87.5</v>
+        <v>89.69</v>
       </c>
       <c r="E76" t="n">
-        <v>87.5</v>
+        <v>89.19</v>
       </c>
       <c r="F76" t="n">
-        <v>1288.8674</v>
+        <v>8517.1659</v>
       </c>
       <c r="G76" t="n">
-        <v>295217.1395967187</v>
+        <v>249158.0392</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3432,28 +3402,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>87.5</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>87.5</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>87.5</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>87.5</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>10000</v>
+        <v>9262.6131</v>
       </c>
       <c r="G77" t="n">
-        <v>295217.1395967187</v>
+        <v>249158.0392</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3468,28 +3438,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87.48999999999999</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>87.48999999999999</v>
+        <v>89.67</v>
       </c>
       <c r="D78" t="n">
-        <v>87.48999999999999</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>87.48999999999999</v>
+        <v>89.66</v>
       </c>
       <c r="F78" t="n">
-        <v>1099.5162</v>
+        <v>22733.194</v>
       </c>
       <c r="G78" t="n">
-        <v>294117.6233967187</v>
+        <v>226424.8452</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3504,28 +3474,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87.44</v>
+        <v>89.67</v>
       </c>
       <c r="C79" t="n">
-        <v>87.39</v>
+        <v>89.69</v>
       </c>
       <c r="D79" t="n">
-        <v>87.44</v>
+        <v>89.69</v>
       </c>
       <c r="E79" t="n">
-        <v>87.39</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>345.3633</v>
+        <v>77332.0622</v>
       </c>
       <c r="G79" t="n">
-        <v>293772.2600967187</v>
+        <v>303756.9074</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3540,28 +3510,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87.34</v>
+        <v>89.69</v>
       </c>
       <c r="C80" t="n">
-        <v>87.31</v>
+        <v>89.69</v>
       </c>
       <c r="D80" t="n">
-        <v>87.34</v>
+        <v>89.69</v>
       </c>
       <c r="E80" t="n">
-        <v>87.31</v>
+        <v>89.69</v>
       </c>
       <c r="F80" t="n">
-        <v>3033.4058</v>
+        <v>7391.299</v>
       </c>
       <c r="G80" t="n">
-        <v>290738.8542967187</v>
+        <v>303756.9074</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3576,28 +3546,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87.29000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>87.29000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>87.29000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>87.29000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>10000</v>
+        <v>4579.7017</v>
       </c>
       <c r="G81" t="n">
-        <v>280738.8542967187</v>
+        <v>299177.2057</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3612,28 +3582,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.93000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="C82" t="n">
-        <v>87.93000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="D82" t="n">
-        <v>87.93000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="E82" t="n">
-        <v>87.93000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="F82" t="n">
-        <v>4821.3279</v>
+        <v>177.7986</v>
       </c>
       <c r="G82" t="n">
-        <v>285560.1821967186</v>
+        <v>299355.0043</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3648,28 +3618,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>87.93000000000001</v>
+        <v>89.08</v>
       </c>
       <c r="C83" t="n">
-        <v>87.93000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>87.93000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>87.93000000000001</v>
+        <v>89.08</v>
       </c>
       <c r="F83" t="n">
-        <v>1807.9951</v>
+        <v>5189.8208</v>
       </c>
       <c r="G83" t="n">
-        <v>285560.1821967186</v>
+        <v>304544.8251</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3684,28 +3654,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87.59</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>87.59</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>87.59</v>
+        <v>89.69</v>
       </c>
       <c r="E84" t="n">
-        <v>87.59</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>150</v>
+        <v>1413.3456</v>
       </c>
       <c r="G84" t="n">
-        <v>285410.1821967186</v>
+        <v>303131.4795</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3720,28 +3690,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.59</v>
+        <v>89.78</v>
       </c>
       <c r="C85" t="n">
-        <v>87.59</v>
+        <v>89.78</v>
       </c>
       <c r="D85" t="n">
-        <v>87.59</v>
+        <v>89.78</v>
       </c>
       <c r="E85" t="n">
-        <v>87.59</v>
+        <v>89.78</v>
       </c>
       <c r="F85" t="n">
-        <v>325</v>
+        <v>1702</v>
       </c>
       <c r="G85" t="n">
-        <v>285410.1821967186</v>
+        <v>304833.4795</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3756,28 +3726,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.31</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>87.8</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>87.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>87.3</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>10497.8986</v>
+        <v>2120</v>
       </c>
       <c r="G86" t="n">
-        <v>295908.0807967187</v>
+        <v>302713.4795</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3792,22 +3762,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="C87" t="n">
-        <v>87.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="E87" t="n">
-        <v>87.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>5568.6785</v>
+        <v>230</v>
       </c>
       <c r="G87" t="n">
-        <v>295908.0807967187</v>
+        <v>302483.4795</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3828,22 +3798,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>87.8</v>
+        <v>88.55</v>
       </c>
       <c r="C88" t="n">
-        <v>87.8</v>
+        <v>88.52</v>
       </c>
       <c r="D88" t="n">
-        <v>87.8</v>
+        <v>88.55</v>
       </c>
       <c r="E88" t="n">
-        <v>87.8</v>
+        <v>88.52</v>
       </c>
       <c r="F88" t="n">
-        <v>298.3236</v>
+        <v>13025.8838</v>
       </c>
       <c r="G88" t="n">
-        <v>295908.0807967187</v>
+        <v>289457.5956999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3864,22 +3834,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="C89" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="D89" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="E89" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="F89" t="n">
-        <v>32516.46</v>
+        <v>150</v>
       </c>
       <c r="G89" t="n">
-        <v>295908.0807967187</v>
+        <v>289607.5956999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3900,22 +3870,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>87.40000000000001</v>
+        <v>89.08</v>
       </c>
       <c r="C90" t="n">
-        <v>87.2</v>
+        <v>89.09</v>
       </c>
       <c r="D90" t="n">
-        <v>87.8</v>
+        <v>89.09</v>
       </c>
       <c r="E90" t="n">
-        <v>87.2</v>
+        <v>89.08</v>
       </c>
       <c r="F90" t="n">
-        <v>37923.484</v>
+        <v>6422.7514</v>
       </c>
       <c r="G90" t="n">
-        <v>257984.5967967187</v>
+        <v>296030.3471</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3936,22 +3906,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="C91" t="n">
-        <v>87.3</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="E91" t="n">
-        <v>87.3</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>185.6195</v>
+        <v>370.353</v>
       </c>
       <c r="G91" t="n">
-        <v>258170.2162967187</v>
+        <v>295659.9941</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3972,22 +3942,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="C92" t="n">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="D92" t="n">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="E92" t="n">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="F92" t="n">
-        <v>13051.4185</v>
+        <v>6</v>
       </c>
       <c r="G92" t="n">
-        <v>245118.7977967187</v>
+        <v>295665.9941</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4008,22 +3978,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="C93" t="n">
-        <v>87.17</v>
+        <v>89</v>
       </c>
       <c r="D93" t="n">
-        <v>87.3</v>
+        <v>89</v>
       </c>
       <c r="E93" t="n">
-        <v>87.17</v>
+        <v>88.5</v>
       </c>
       <c r="F93" t="n">
-        <v>8660</v>
+        <v>3559.3042</v>
       </c>
       <c r="G93" t="n">
-        <v>236458.7977967187</v>
+        <v>299225.2983</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4044,22 +4014,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>87.17</v>
+        <v>88.41</v>
       </c>
       <c r="C94" t="n">
-        <v>87.17</v>
+        <v>88.25</v>
       </c>
       <c r="D94" t="n">
-        <v>87.17</v>
+        <v>88.41</v>
       </c>
       <c r="E94" t="n">
-        <v>87.17</v>
+        <v>88.25</v>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>9186.729499999999</v>
       </c>
       <c r="G94" t="n">
-        <v>236458.7977967187</v>
+        <v>290038.5687999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4080,22 +4050,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>87.17</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>87.17</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>87.17</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>87.17</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>261.4024</v>
+        <v>2248.090796718732</v>
       </c>
       <c r="G95" t="n">
-        <v>236458.7977967187</v>
+        <v>292286.6595967187</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4116,22 +4086,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>87.09999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>87.09999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>87.09999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>87.09999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>350</v>
+        <v>11524.3875</v>
       </c>
       <c r="G96" t="n">
-        <v>236108.7977967187</v>
+        <v>280762.2720967187</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4152,22 +4122,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87</v>
+        <v>88.16</v>
       </c>
       <c r="C97" t="n">
-        <v>87</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>87</v>
+        <v>88.16</v>
       </c>
       <c r="E97" t="n">
-        <v>87</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>530.6221</v>
+        <v>1198.8554</v>
       </c>
       <c r="G97" t="n">
-        <v>235578.1756967187</v>
+        <v>279563.4166967187</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4188,22 +4158,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D98" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E98" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F98" t="n">
-        <v>10472.0478</v>
+        <v>10.2273</v>
       </c>
       <c r="G98" t="n">
-        <v>235578.1756967187</v>
+        <v>279573.6439967187</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4224,22 +4194,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="C99" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="D99" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="E99" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="F99" t="n">
-        <v>9.1534</v>
+        <v>2055</v>
       </c>
       <c r="G99" t="n">
-        <v>235587.3290967187</v>
+        <v>279573.6439967187</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4260,22 +4230,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="C100" t="n">
-        <v>87.40000000000001</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>87.40000000000001</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="F100" t="n">
-        <v>368</v>
+        <v>945</v>
       </c>
       <c r="G100" t="n">
-        <v>235587.3290967187</v>
+        <v>280518.6439967187</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4296,22 +4266,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>87.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>87.5</v>
+        <v>87.45</v>
       </c>
       <c r="D101" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>87.40000000000001</v>
+        <v>87.45</v>
       </c>
       <c r="F101" t="n">
-        <v>755.9176</v>
+        <v>20569.4196</v>
       </c>
       <c r="G101" t="n">
-        <v>236343.2466967186</v>
+        <v>259949.2243967187</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4332,22 +4302,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="C102" t="n">
-        <v>87.47</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>87.47</v>
+        <v>87.5</v>
       </c>
       <c r="E102" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>7119.0919</v>
+        <v>33979.0478</v>
       </c>
       <c r="G102" t="n">
-        <v>229224.1547967186</v>
+        <v>293928.2721967187</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4368,22 +4338,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>87.09999999999999</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>87.09999999999999</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>7850</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="n">
-        <v>221374.1547967186</v>
+        <v>293928.2721967187</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4404,22 +4374,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="C104" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="E104" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>9065.299999999999</v>
+        <v>11089</v>
       </c>
       <c r="G104" t="n">
-        <v>221374.1547967186</v>
+        <v>293928.2721967187</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4440,22 +4410,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>87.02</v>
+        <v>87.5</v>
       </c>
       <c r="C105" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="D105" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="E105" t="n">
-        <v>87.02</v>
+        <v>87.5</v>
       </c>
       <c r="F105" t="n">
-        <v>5555.9289</v>
+        <v>1288.8674</v>
       </c>
       <c r="G105" t="n">
-        <v>226930.0836967186</v>
+        <v>295217.1395967187</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4476,7 +4446,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="C106" t="n">
         <v>87.5</v>
@@ -4485,13 +4455,13 @@
         <v>87.5</v>
       </c>
       <c r="E106" t="n">
-        <v>87.02</v>
+        <v>87.5</v>
       </c>
       <c r="F106" t="n">
-        <v>8812.5699</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="n">
-        <v>235742.6535967187</v>
+        <v>295217.1395967187</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4512,22 +4482,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>87.02</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>1513.4207</v>
+        <v>1099.5162</v>
       </c>
       <c r="G107" t="n">
-        <v>234229.2328967187</v>
+        <v>294117.6233967187</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4548,22 +4518,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87.02</v>
+        <v>87.44</v>
       </c>
       <c r="C108" t="n">
-        <v>87.02</v>
+        <v>87.39</v>
       </c>
       <c r="D108" t="n">
-        <v>87.02</v>
+        <v>87.44</v>
       </c>
       <c r="E108" t="n">
-        <v>87.02</v>
+        <v>87.39</v>
       </c>
       <c r="F108" t="n">
-        <v>2740</v>
+        <v>345.3633</v>
       </c>
       <c r="G108" t="n">
-        <v>234229.2328967187</v>
+        <v>293772.2600967187</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4584,22 +4554,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>87.03</v>
+        <v>87.34</v>
       </c>
       <c r="C109" t="n">
-        <v>87.02</v>
+        <v>87.31</v>
       </c>
       <c r="D109" t="n">
-        <v>87.03</v>
+        <v>87.34</v>
       </c>
       <c r="E109" t="n">
-        <v>87.02</v>
+        <v>87.31</v>
       </c>
       <c r="F109" t="n">
-        <v>431</v>
+        <v>3033.4058</v>
       </c>
       <c r="G109" t="n">
-        <v>234229.2328967187</v>
+        <v>290738.8542967187</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4620,22 +4590,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87.03</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>87.02</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>87.03</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>87.02</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>6461.8451</v>
+        <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>234229.2328967187</v>
+        <v>280738.8542967187</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4656,22 +4626,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>1906.4671</v>
+        <v>4821.3279</v>
       </c>
       <c r="G111" t="n">
-        <v>234229.2328967187</v>
+        <v>285560.1821967186</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4692,22 +4662,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>86.90000000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>87.02</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>86.90000000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>24000</v>
+        <v>1807.9951</v>
       </c>
       <c r="G112" t="n">
-        <v>210229.2328967187</v>
+        <v>285560.1821967186</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4728,22 +4698,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="C113" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="D113" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="E113" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="F113" t="n">
-        <v>2155</v>
+        <v>150</v>
       </c>
       <c r="G113" t="n">
-        <v>210229.2328967187</v>
+        <v>285410.1821967186</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4764,22 +4734,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="C114" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="D114" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="E114" t="n">
-        <v>86.90000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="F114" t="n">
-        <v>4913.4897</v>
+        <v>325</v>
       </c>
       <c r="G114" t="n">
-        <v>210229.2328967187</v>
+        <v>285410.1821967186</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4800,22 +4770,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>86.90000000000001</v>
+        <v>87.31</v>
       </c>
       <c r="C115" t="n">
-        <v>86.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D115" t="n">
-        <v>86.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E115" t="n">
-        <v>86.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="F115" t="n">
-        <v>4571.6529</v>
+        <v>10497.8986</v>
       </c>
       <c r="G115" t="n">
-        <v>210229.2328967187</v>
+        <v>295908.0807967187</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4831,6 +4801,1050 @@
       </c>
       <c r="N115" t="inlineStr"/>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5568.6785</v>
+      </c>
+      <c r="G116" t="n">
+        <v>295908.0807967187</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>298.3236</v>
+      </c>
+      <c r="G117" t="n">
+        <v>295908.0807967187</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>32516.46</v>
+      </c>
+      <c r="G118" t="n">
+        <v>295908.0807967187</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>37923.484</v>
+      </c>
+      <c r="G119" t="n">
+        <v>257984.5967967187</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>185.6195</v>
+      </c>
+      <c r="G120" t="n">
+        <v>258170.2162967187</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13051.4185</v>
+      </c>
+      <c r="G121" t="n">
+        <v>245118.7977967187</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="D122" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8660</v>
+      </c>
+      <c r="G122" t="n">
+        <v>236458.7977967187</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="C123" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="D123" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="E123" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>236458.7977967187</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="C124" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="D124" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="E124" t="n">
+        <v>87.17</v>
+      </c>
+      <c r="F124" t="n">
+        <v>261.4024</v>
+      </c>
+      <c r="G124" t="n">
+        <v>236458.7977967187</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D125" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E125" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>350</v>
+      </c>
+      <c r="G125" t="n">
+        <v>236108.7977967187</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>87</v>
+      </c>
+      <c r="C126" t="n">
+        <v>87</v>
+      </c>
+      <c r="D126" t="n">
+        <v>87</v>
+      </c>
+      <c r="E126" t="n">
+        <v>87</v>
+      </c>
+      <c r="F126" t="n">
+        <v>530.6221</v>
+      </c>
+      <c r="G126" t="n">
+        <v>235578.1756967187</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>87</v>
+      </c>
+      <c r="C127" t="n">
+        <v>87</v>
+      </c>
+      <c r="D127" t="n">
+        <v>87</v>
+      </c>
+      <c r="E127" t="n">
+        <v>87</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10472.0478</v>
+      </c>
+      <c r="G127" t="n">
+        <v>235578.1756967187</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9.1534</v>
+      </c>
+      <c r="G128" t="n">
+        <v>235587.3290967187</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>368</v>
+      </c>
+      <c r="G129" t="n">
+        <v>235587.3290967187</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>755.9176</v>
+      </c>
+      <c r="G130" t="n">
+        <v>236343.2466967186</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>87.47</v>
+      </c>
+      <c r="D131" t="n">
+        <v>87.47</v>
+      </c>
+      <c r="E131" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7119.0919</v>
+      </c>
+      <c r="G131" t="n">
+        <v>229224.1547967186</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D132" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7850</v>
+      </c>
+      <c r="G132" t="n">
+        <v>221374.1547967186</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9065.299999999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>221374.1547967186</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="C134" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5555.9289</v>
+      </c>
+      <c r="G134" t="n">
+        <v>226930.0836967186</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8812.5699</v>
+      </c>
+      <c r="G135" t="n">
+        <v>235742.6535967187</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="C136" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="E136" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1513.4207</v>
+      </c>
+      <c r="G136" t="n">
+        <v>234229.2328967187</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="C137" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D137" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2740</v>
+      </c>
+      <c r="G137" t="n">
+        <v>234229.2328967187</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D138" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="E138" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F138" t="n">
+        <v>431</v>
+      </c>
+      <c r="G138" t="n">
+        <v>234229.2328967187</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="C139" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D139" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="E139" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6461.8451</v>
+      </c>
+      <c r="G139" t="n">
+        <v>234229.2328967187</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="C140" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="D140" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="E140" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1906.4671</v>
+      </c>
+      <c r="G140" t="n">
+        <v>234229.2328967187</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="C141" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>210229.2328967187</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2155</v>
+      </c>
+      <c r="G142" t="n">
+        <v>210229.2328967187</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4913.4897</v>
+      </c>
+      <c r="G143" t="n">
+        <v>210229.2328967187</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4571.6529</v>
+      </c>
+      <c r="G144" t="n">
+        <v>210229.2328967187</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>161386.4004</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,19 @@
         <v>170870.521</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>88.16</v>
       </c>
       <c r="J4" t="n">
         <v>88.16</v>
       </c>
-      <c r="K4" t="n">
-        <v>88.16</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +556,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>88.16</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,26 +593,23 @@
         <v>166019.0712</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J6" t="n">
-        <v>88</v>
-      </c>
-      <c r="K6" t="n">
         <v>88.16</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,26 +634,23 @@
         <v>166659.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="J7" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K7" t="n">
         <v>88.16</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,26 +675,23 @@
         <v>164172.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K8" t="n">
         <v>88.16</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,22 +718,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>88.16</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,26 +755,21 @@
         <v>164172.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K10" t="n">
         <v>88.16</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,26 +794,21 @@
         <v>171103.5931</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K11" t="n">
         <v>88.16</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,26 +833,21 @@
         <v>170603.5931</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="K12" t="n">
         <v>88.16</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,26 +872,23 @@
         <v>166688.7941</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="J13" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K13" t="n">
         <v>88.16</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +913,23 @@
         <v>167804.0021</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>87.68000000000001</v>
-      </c>
-      <c r="K14" t="n">
         <v>88.16</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,26 +954,23 @@
         <v>167788.0213</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>88.05</v>
       </c>
       <c r="J15" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="K15" t="n">
         <v>88.16</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,26 +995,23 @@
         <v>168469.8759</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="J16" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="K16" t="n">
         <v>88.16</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,24 +1036,23 @@
         <v>168449.8759</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>88.16</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,22 +1079,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>88.16</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1178,22 +1118,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>88.16</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,22 +1157,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>88.16</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,22 +1196,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>88.16</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1304,22 +1235,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>88.16</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,24 +1272,23 @@
         <v>179941.7292</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="J23" t="n">
         <v>88.16</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,24 +1313,23 @@
         <v>173041.5938</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="J24" t="n">
         <v>88.16</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,24 +1354,23 @@
         <v>177140.2934</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="J25" t="n">
         <v>88.16</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,24 +1395,23 @@
         <v>177239.0152</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+        <v>88</v>
+      </c>
+      <c r="J26" t="n">
         <v>88.16</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,24 +1436,23 @@
         <v>177239.0152</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+        <v>88.08</v>
+      </c>
+      <c r="J27" t="n">
         <v>88.16</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,24 +1477,23 @@
         <v>190153.6025</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+        <v>88.08</v>
+      </c>
+      <c r="J28" t="n">
         <v>88.16</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,24 +1518,23 @@
         <v>190153.6025</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="J29" t="n">
         <v>88.16</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1640,22 +1561,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>88.16</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1682,22 +1600,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>88.16</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,24 +1637,21 @@
         <v>221449.1986</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>88.16</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1766,22 +1678,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>88.16</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,24 +1715,21 @@
         <v>220983.2534</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>88.16</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,24 +1754,21 @@
         <v>221204.6398</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>88.16</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1892,22 +1795,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>88.16</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1934,22 +1834,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>88.16</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1976,22 +1873,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>88.16</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,24 +1910,21 @@
         <v>236407.4915</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>88.16</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,24 +1949,21 @@
         <v>240587.0431</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>88.16</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,24 +1988,21 @@
         <v>240278.9562</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>88.16</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,24 +2027,21 @@
         <v>262657.2549</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>88.16</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,24 +2066,21 @@
         <v>291941.5326</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>88.16</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,24 +2105,21 @@
         <v>276429.725</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>88.16</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1.004868421052632</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,18 +2144,21 @@
         <v>270188.7022</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2304,18 +2183,21 @@
         <v>271603.2719</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2340,18 +2222,21 @@
         <v>275758.3122</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2376,18 +2261,21 @@
         <v>283092.0994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2412,18 +2300,21 @@
         <v>265476.5488</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2448,18 +2339,21 @@
         <v>263146.5488</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2484,18 +2378,21 @@
         <v>270277.277</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2520,18 +2417,21 @@
         <v>237605.7495</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2556,18 +2456,21 @@
         <v>240625.6029</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.009519056261343</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2592,18 +2495,15 @@
         <v>237426.6455</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2628,18 +2528,15 @@
         <v>237426.6455</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2664,18 +2561,15 @@
         <v>205326.5294</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,18 +2594,15 @@
         <v>201720.3518</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2736,18 +2627,15 @@
         <v>208482.8302</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2774,16 +2662,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2810,16 +2695,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2846,16 +2728,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2882,16 +2761,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2918,16 +2794,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,16 +2827,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2990,16 +2860,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3026,16 +2893,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3062,16 +2926,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3098,16 +2959,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3134,16 +2992,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3170,16 +3025,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3206,16 +3058,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3242,16 +3091,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3278,16 +3124,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3314,16 +3157,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3350,16 +3190,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3386,16 +3223,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3422,16 +3256,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3458,16 +3289,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3492,18 +3320,15 @@
         <v>303756.9074</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3530,16 +3355,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3564,18 +3386,15 @@
         <v>299177.2057</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3600,18 +3419,15 @@
         <v>299355.0043</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3636,18 +3452,15 @@
         <v>304544.8251</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3674,16 +3487,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3708,18 +3518,15 @@
         <v>304833.4795</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3744,18 +3551,15 @@
         <v>302713.4795</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3780,18 +3584,15 @@
         <v>302483.4795</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3818,16 +3619,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3854,16 +3652,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,16 +3685,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3926,16 +3718,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3962,16 +3751,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3998,16 +3784,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4034,16 +3817,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4070,16 +3850,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4106,16 +3883,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4142,16 +3916,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4178,16 +3949,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4214,16 +3982,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,16 +4015,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4286,16 +4048,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4322,16 +4081,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4358,16 +4114,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4394,16 +4147,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4430,16 +4180,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4466,16 +4213,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4502,16 +4246,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4538,16 +4279,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4574,16 +4312,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4610,16 +4345,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4646,16 +4378,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4682,16 +4411,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4718,16 +4444,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4754,16 +4477,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4790,16 +4510,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4826,16 +4543,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4862,16 +4576,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4898,16 +4609,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4934,16 +4642,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4970,16 +4675,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5006,16 +4708,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5042,16 +4741,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5078,16 +4774,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5114,16 +4807,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5150,16 +4840,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5186,16 +4873,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5222,16 +4906,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5258,16 +4939,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5294,16 +4972,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5330,16 +5005,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5366,16 +5038,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5402,16 +5071,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5438,16 +5104,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5474,16 +5137,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5510,16 +5170,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5546,16 +5203,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5582,16 +5236,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5618,16 +5269,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5654,16 +5302,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5690,16 +5335,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5724,18 +5366,21 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>87.02</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5760,18 +5405,21 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5796,18 +5444,21 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5832,20 +5483,23 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161386.4004</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>164479.3233</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,15 +523,17 @@
         <v>170870.521</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>88.16</v>
       </c>
-      <c r="J4" t="n">
-        <v>88.16</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,15 +562,15 @@
         <v>168103.0711</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>88.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>88.17</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -593,14 +601,12 @@
         <v>166019.0712</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>88</v>
       </c>
-      <c r="J6" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -634,14 +640,12 @@
         <v>166659.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>87.8</v>
       </c>
-      <c r="J7" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -675,14 +679,12 @@
         <v>164172.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>87.98999999999999</v>
       </c>
-      <c r="J8" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -716,12 +718,12 @@
         <v>164172.7697</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>88.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -755,12 +757,12 @@
         <v>164172.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>88.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -794,12 +796,12 @@
         <v>171103.5931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>88.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -833,12 +835,12 @@
         <v>170603.5931</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>88.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -872,14 +874,12 @@
         <v>166688.7941</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>87.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,14 +913,12 @@
         <v>167804.0021</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>87.68000000000001</v>
       </c>
-      <c r="J14" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,14 +952,12 @@
         <v>167788.0213</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>88.05</v>
       </c>
-      <c r="J15" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -995,14 +991,10 @@
         <v>168469.8759</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,14 +1028,10 @@
         <v>168449.8759</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,9 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1119,9 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1158,9 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1197,9 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1236,9 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1272,14 +1250,10 @@
         <v>179941.7292</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>87.89</v>
-      </c>
-      <c r="J23" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1313,14 +1287,10 @@
         <v>173041.5938</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>87.89</v>
-      </c>
-      <c r="J24" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1354,14 +1324,10 @@
         <v>177140.2934</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>87.68000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1395,14 +1361,10 @@
         <v>177239.0152</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>88</v>
-      </c>
-      <c r="J26" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1436,14 +1398,10 @@
         <v>177239.0152</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="J27" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1477,14 +1435,10 @@
         <v>190153.6025</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="J28" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,14 +1472,10 @@
         <v>190153.6025</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88.34999999999999</v>
-      </c>
-      <c r="J29" t="n">
-        <v>88.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,9 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,9 +1549,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,12 +1583,10 @@
         <v>221449.1986</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,9 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,12 +1657,10 @@
         <v>220983.2534</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,12 +1694,10 @@
         <v>221204.6398</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,9 +1734,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,9 +1771,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,9 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,12 +1842,10 @@
         <v>236407.4915</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1949,12 +1879,10 @@
         <v>240587.0431</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,12 +1916,10 @@
         <v>240278.9562</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,12 +1953,10 @@
         <v>262657.2549</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2066,12 +1990,10 @@
         <v>291941.5326</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2105,12 +2027,10 @@
         <v>276429.725</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,12 +2064,10 @@
         <v>270188.7022</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,12 +2101,10 @@
         <v>271603.2719</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,12 +2138,10 @@
         <v>275758.3122</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,12 +2175,10 @@
         <v>283092.0994</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,12 +2212,10 @@
         <v>265476.5488</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,12 +2249,10 @@
         <v>263146.5488</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,12 +2286,10 @@
         <v>270277.277</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2417,12 +2323,10 @@
         <v>237605.7495</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,19 +2360,17 @@
         <v>240625.6029</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>88.16</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.009519056261343</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
     </row>
@@ -2495,11 +2397,15 @@
         <v>237426.6455</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2528,11 +2434,15 @@
         <v>237426.6455</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2471,15 @@
         <v>205326.5294</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2594,11 +2508,15 @@
         <v>201720.3518</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2545,15 @@
         <v>208482.8302</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2582,16 @@
         <v>217930.8425</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2693,7 +2617,7 @@
         <v>183665.1409</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2759,7 +2683,7 @@
         <v>219106.3369</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2924,7 +2848,7 @@
         <v>219969.3218</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2957,7 +2881,7 @@
         <v>231969.3218</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2990,7 +2914,7 @@
         <v>235969.3218</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3023,7 +2947,7 @@
         <v>239843.9615</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3056,7 +2980,7 @@
         <v>242851.8241</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3089,7 +3013,7 @@
         <v>241673.042</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3122,7 +3046,7 @@
         <v>221102.0373</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3155,7 +3079,7 @@
         <v>253075.2387</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3188,7 +3112,7 @@
         <v>240640.8733</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3221,7 +3145,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3254,7 +3178,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3320,7 +3244,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3386,7 +3310,7 @@
         <v>299177.2057</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3419,7 +3343,7 @@
         <v>299355.0043</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3452,7 +3376,7 @@
         <v>304544.8251</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3518,7 +3442,7 @@
         <v>304833.4795</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3551,7 +3475,7 @@
         <v>302713.4795</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3584,7 +3508,7 @@
         <v>302483.4795</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3749,7 +3673,7 @@
         <v>295665.9941</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3782,7 +3706,7 @@
         <v>299225.2983</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3881,7 +3805,7 @@
         <v>280762.2720967187</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3947,7 +3871,7 @@
         <v>279573.6439967187</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5366,17 +5290,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5405,17 +5323,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5444,17 +5356,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5483,23 +5389,17 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161386.4004</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>164479.3233</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>170870.521</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>88.16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>168103.0711</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>88.17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>166019.0712</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>166659.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>164172.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87.98999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>164172.7697</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>87.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>164172.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>171103.5931</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>170603.5931</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>166688.7941</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>167804.0021</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>87.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>167788.0213</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>88.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -995,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1106,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1254,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,15 +1177,15 @@
         <v>173041.5938</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="J24" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1324,13 +1214,17 @@
         <v>177140.2934</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>87.89</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1364,10 +1258,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>87.89</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1402,11 +1298,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1439,11 +1331,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1476,11 +1364,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,15 +1393,11 @@
         <v>190159.6025</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,15 +1426,11 @@
         <v>221628.1758</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,15 +1459,11 @@
         <v>221449.1986</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,15 +1492,11 @@
         <v>220369.1986</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1657,15 +1525,11 @@
         <v>220983.2534</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1694,15 +1558,11 @@
         <v>221204.6398</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1731,15 +1591,11 @@
         <v>221803.4391</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,15 +1624,11 @@
         <v>221803.4391</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,15 +1657,11 @@
         <v>222103.4433</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,15 +1690,11 @@
         <v>236407.4915</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,15 +1723,11 @@
         <v>240587.0431</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1916,15 +1756,11 @@
         <v>240278.9562</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1953,15 +1789,11 @@
         <v>262657.2549</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,15 +1822,11 @@
         <v>291941.5326</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2027,15 +1855,11 @@
         <v>276429.725</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2064,15 +1888,11 @@
         <v>270188.7022</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2101,15 +1921,11 @@
         <v>271603.2719</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2138,15 +1954,11 @@
         <v>275758.3122</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2175,15 +1987,11 @@
         <v>283092.0994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2024,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2057,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2290,11 +2090,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2327,11 +2123,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2360,15 +2152,11 @@
         <v>240625.6029</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2397,15 +2185,11 @@
         <v>237426.6455</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2438,11 +2222,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2255,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2508,15 +2284,11 @@
         <v>201720.3518</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2545,15 +2317,11 @@
         <v>208482.8302</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2586,12 +2354,10 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2650,7 +2416,7 @@
         <v>219651.3369</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2716,7 +2482,7 @@
         <v>219556.3369</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2749,7 +2515,7 @@
         <v>219931.9698</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2848,7 +2614,7 @@
         <v>219969.3218</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2881,7 +2647,7 @@
         <v>231969.3218</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2914,7 +2680,7 @@
         <v>235969.3218</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2947,7 +2713,7 @@
         <v>239843.9615</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2980,7 +2746,7 @@
         <v>242851.8241</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3013,7 +2779,7 @@
         <v>241673.042</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3046,7 +2812,7 @@
         <v>221102.0373</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3079,7 +2845,7 @@
         <v>253075.2387</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3112,7 +2878,7 @@
         <v>240640.8733</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3145,7 +2911,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3178,7 +2944,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3673,7 +3439,7 @@
         <v>295665.9941</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3706,7 +3472,7 @@
         <v>299225.2983</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3805,7 +3571,7 @@
         <v>280762.2720967187</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3871,7 +3637,7 @@
         <v>279573.6439967187</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4861,10 +4627,14 @@
         <v>235587.3290967187</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>87</v>
+      </c>
+      <c r="J128" t="n">
+        <v>87</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4897,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>87</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>87</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +4841,17 @@
         <v>226930.0836967186</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +4880,17 @@
         <v>235742.6535967187</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +4919,17 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>87.5</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +4958,17 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +4997,17 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5036,17 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5075,17 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5114,17 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>87.02</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +5153,17 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>86.90000000000001</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +5192,17 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>86.90000000000001</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5389,17 +5231,23 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>86.90000000000001</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-23 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>161386.4004</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>164479.3233</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>170870.521</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>88.16</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>168103.0711</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>88.17</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>166019.0712</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>88</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>166659.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>164172.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87.98999999999999</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>164172.7697</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>164172.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>171103.5931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>170603.5931</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>88.05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>166688.7941</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>167804.0021</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>87.68000000000001</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>167788.0213</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>88.05</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>168469.8759</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1034,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1071,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1108,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1145,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1182,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1219,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1256,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,15 +1289,15 @@
         <v>173041.5938</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>87.89</v>
-      </c>
-      <c r="J24" t="n">
-        <v>87.89</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,17 +1326,13 @@
         <v>177140.2934</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>87.68000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>87.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1258,12 +1366,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>87.89</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1298,7 +1404,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1331,7 +1441,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1364,7 +1478,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1511,15 @@
         <v>190159.6025</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1548,15 @@
         <v>221628.1758</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1585,15 @@
         <v>221449.1986</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1622,15 @@
         <v>220369.1986</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1659,15 @@
         <v>220983.2534</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1558,11 +1696,15 @@
         <v>221204.6398</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1733,15 @@
         <v>221803.4391</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1624,11 +1770,15 @@
         <v>221803.4391</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1807,15 @@
         <v>222103.4433</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1844,15 @@
         <v>236407.4915</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1881,15 @@
         <v>240587.0431</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1756,11 +1918,15 @@
         <v>240278.9562</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +1955,15 @@
         <v>262657.2549</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1992,15 @@
         <v>291941.5326</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +2029,15 @@
         <v>276429.725</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +2066,15 @@
         <v>270188.7022</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +2103,15 @@
         <v>271603.2719</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2140,15 @@
         <v>275758.3122</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1987,11 +2177,15 @@
         <v>283092.0994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +2214,16 @@
         <v>265476.5488</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2119,7 +2315,7 @@
         <v>237605.7495</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2218,7 +2414,7 @@
         <v>237426.6455</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2447,7 @@
         <v>205326.5294</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2317,7 +2513,7 @@
         <v>208482.8302</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2546,7 @@
         <v>217930.8425</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2579,7 @@
         <v>183665.1409</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2612,7 @@
         <v>219651.3369</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2645,7 @@
         <v>219106.3369</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2515,7 +2711,7 @@
         <v>219931.9698</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2744,7 @@
         <v>219492.8239</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2777,7 @@
         <v>207869.7604</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2810,7 @@
         <v>219969.3218</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2843,7 @@
         <v>231969.3218</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2876,7 @@
         <v>235969.3218</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2909,7 @@
         <v>239843.9615</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2942,7 @@
         <v>242851.8241</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2975,7 @@
         <v>241673.042</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +3008,7 @@
         <v>221102.0373</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +3041,7 @@
         <v>253075.2387</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +3074,7 @@
         <v>240640.8733</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +3107,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +3140,7 @@
         <v>249158.0392</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +3173,7 @@
         <v>226424.8452</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3206,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3239,7 @@
         <v>303756.9074</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3272,7 @@
         <v>299177.2057</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3305,7 @@
         <v>299355.0043</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3338,7 @@
         <v>304544.8251</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3371,7 @@
         <v>303131.4795</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3404,7 @@
         <v>304833.4795</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3437,7 @@
         <v>302713.4795</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3470,7 @@
         <v>302483.4795</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4627,14 +4823,10 @@
         <v>235587.3290967187</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>87</v>
-      </c>
-      <c r="J128" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4667,14 +4859,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>87</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4706,14 +4892,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>87</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4841,17 +5021,11 @@
         <v>226930.0836967186</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4880,17 +5054,11 @@
         <v>235742.6535967187</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>87.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4919,17 +5087,11 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4958,17 +5120,11 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4997,17 +5153,11 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5036,17 +5186,11 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5075,17 +5219,11 @@
         <v>234229.2328967187</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5114,17 +5252,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>87.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5153,17 +5285,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5192,17 +5318,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5231,17 +5351,11 @@
         <v>210229.2328967187</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>86.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
